--- a/resources/maed-2.0.0/inputs/models/Benin_IEA.xlsx
+++ b/resources/maed-2.0.0/inputs/models/Benin_IEA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwrox\GitHub\rawtodeal\resources\maed-2.0.0\inputs\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwrox\GitHub\CCG_modelling_pipeline\resources\maed-2.0.0\inputs\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B20C677-78FE-45DF-8ADC-B15DFC7B8071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7122607-0EC6-4026-A4C5-5776F915CF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economic_demography" sheetId="1" r:id="rId1"/>
